--- a/data/Feb14_GPAT assay.xlsx
+++ b/data/Feb14_GPAT assay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Teaching/Data Analysis/2022/Labs/BIOWLF680/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB149983-20C4-CC45-998A-0799D853C8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBA4F8-39E9-F34A-876C-F701ACC0B5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22520" yWindow="1540" windowWidth="16420" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23440" yWindow="3000" windowWidth="10000" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
@@ -506,12 +506,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -694,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
